--- a/back-end/public/申请信息.xlsx
+++ b/back-end/public/申请信息.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -450,34 +450,34 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2018-08-28</v>
+        <v>2018-08-29</v>
       </c>
       <c r="B2" t="str">
         <v>创客小镇</v>
       </c>
       <c r="C2" t="str">
-        <v>q</v>
+        <v>颜磊</v>
       </c>
       <c r="D2" t="str">
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="E2" t="str">
-        <v>ww</v>
+        <v>12</v>
       </c>
       <c r="F2" t="str">
         <v>创嘉</v>
       </c>
       <c r="G2" t="str">
-        <v>公司</v>
+        <v>实验室</v>
       </c>
       <c r="H2" t="str">
-        <v>2018-08-20</v>
+        <v>2018-08-01</v>
       </c>
       <c r="I2" t="str">
-        <v>w</v>
+        <v>Java工程师</v>
       </c>
       <c r="J2" t="str">
-        <v>w</v>
+        <v>无</v>
       </c>
       <c r="K2" t="str">
         <v>未婚</v>
@@ -489,104 +489,36 @@
         <v>否</v>
       </c>
       <c r="N2" t="str">
-        <v>ww</v>
+        <v>四川省成都市</v>
       </c>
       <c r="O2" t="str">
+        <v>是</v>
+      </c>
+      <c r="P2" t="str">
         <v>否</v>
-      </c>
-      <c r="P2" t="str">
-        <v>是</v>
       </c>
       <c r="Q2" t="str">
         <v>否</v>
       </c>
       <c r="R2" t="str">
-        <v>有</v>
+        <v>无</v>
       </c>
       <c r="S2" t="str">
         <v>否</v>
       </c>
       <c r="T2" t="str">
-        <v>ww</v>
+        <v>18708178821</v>
       </c>
       <c r="U2" t="str">
-        <v>ww</v>
+        <v>本科</v>
       </c>
       <c r="V2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2018-08-28</v>
-      </c>
-      <c r="B3" t="str">
-        <v>创客小镇</v>
-      </c>
-      <c r="C3" t="str">
-        <v>aaa</v>
-      </c>
-      <c r="D3" t="str">
-        <v>男</v>
-      </c>
-      <c r="E3" t="str">
-        <v>dd</v>
-      </c>
-      <c r="F3" t="str">
-        <v>实验室</v>
-      </c>
-      <c r="G3" t="str">
-        <v>实验室</v>
-      </c>
-      <c r="H3" t="str">
-        <v>2018-08-07</v>
-      </c>
-      <c r="I3" t="str">
-        <v>dd</v>
-      </c>
-      <c r="J3" t="str">
-        <v>dd</v>
-      </c>
-      <c r="K3" t="str">
-        <v>已婚</v>
-      </c>
-      <c r="L3" t="str">
-        <v>123123123123123</v>
-      </c>
-      <c r="M3" t="str">
-        <v>是</v>
-      </c>
-      <c r="N3" t="str">
-        <v>3123123</v>
-      </c>
-      <c r="O3" t="str">
-        <v>否</v>
-      </c>
-      <c r="P3" t="str">
-        <v>否</v>
-      </c>
-      <c r="Q3" t="str">
-        <v>否</v>
-      </c>
-      <c r="R3" t="str">
-        <v>无</v>
-      </c>
-      <c r="S3" t="str">
-        <v>是</v>
-      </c>
-      <c r="T3" t="str">
-        <v>1231231</v>
-      </c>
-      <c r="U3" t="str">
-        <v>12313</v>
-      </c>
-      <c r="V3" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:V3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:V2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/back-end/public/申请信息.xlsx
+++ b/back-end/public/申请信息.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -456,43 +456,43 @@
         <v>创客小镇</v>
       </c>
       <c r="C2" t="str">
-        <v>颜磊</v>
+        <v>123</v>
       </c>
       <c r="D2" t="str">
         <v>男</v>
       </c>
       <c r="E2" t="str">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="F2" t="str">
         <v>创嘉</v>
       </c>
       <c r="G2" t="str">
-        <v>实验室</v>
+        <v>公司</v>
       </c>
       <c r="H2" t="str">
-        <v>2018-08-01</v>
+        <v>2018-09-04</v>
       </c>
       <c r="I2" t="str">
-        <v>Java工程师</v>
+        <v>3213</v>
       </c>
       <c r="J2" t="str">
-        <v>无</v>
+        <v>213</v>
       </c>
       <c r="K2" t="str">
-        <v>未婚</v>
+        <v>已婚</v>
       </c>
       <c r="L2" t="str">
-        <v/>
+        <v>123123</v>
       </c>
       <c r="M2" t="str">
         <v>否</v>
       </c>
       <c r="N2" t="str">
-        <v>四川省成都市</v>
+        <v>123123</v>
       </c>
       <c r="O2" t="str">
-        <v>是</v>
+        <v>否</v>
       </c>
       <c r="P2" t="str">
         <v>否</v>
@@ -507,18 +507,769 @@
         <v>否</v>
       </c>
       <c r="T2" t="str">
+        <v>123123</v>
+      </c>
+      <c r="U2" t="str">
+        <v>123123</v>
+      </c>
+      <c r="V2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2018-08-29</v>
+      </c>
+      <c r="B3" t="str">
+        <v>创客小镇</v>
+      </c>
+      <c r="C3" t="str">
+        <v>颜磊</v>
+      </c>
+      <c r="D3" t="str">
+        <v>男</v>
+      </c>
+      <c r="E3" t="str">
+        <v>511024199601131755</v>
+      </c>
+      <c r="F3" t="str">
+        <v>创嘉</v>
+      </c>
+      <c r="G3" t="str">
+        <v>实验室</v>
+      </c>
+      <c r="H3" t="str">
+        <v>2018-08-01</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Java工程师</v>
+      </c>
+      <c r="J3" t="str">
+        <v>无</v>
+      </c>
+      <c r="K3" t="str">
+        <v>未婚</v>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v>否</v>
+      </c>
+      <c r="N3" t="str">
+        <v>四川省成都市</v>
+      </c>
+      <c r="O3" t="str">
+        <v>是</v>
+      </c>
+      <c r="P3" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>否</v>
+      </c>
+      <c r="R3" t="str">
+        <v>无</v>
+      </c>
+      <c r="S3" t="str">
+        <v>否</v>
+      </c>
+      <c r="T3" t="str">
         <v>18708178821</v>
       </c>
-      <c r="U2" t="str">
+      <c r="U3" t="str">
         <v>本科</v>
       </c>
-      <c r="V2" t="str">
-        <v/>
+      <c r="V3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2018-08-29</v>
+      </c>
+      <c r="B4" t="str">
+        <v>创客小镇</v>
+      </c>
+      <c r="C4" t="str">
+        <v>123123</v>
+      </c>
+      <c r="D4" t="str">
+        <v>男</v>
+      </c>
+      <c r="E4" t="str">
+        <v>123123</v>
+      </c>
+      <c r="F4" t="str">
+        <v>创嘉</v>
+      </c>
+      <c r="G4" t="str">
+        <v>公司</v>
+      </c>
+      <c r="H4" t="str">
+        <v>2018-08-07</v>
+      </c>
+      <c r="I4" t="str">
+        <v>123123123</v>
+      </c>
+      <c r="J4" t="str">
+        <v>123123</v>
+      </c>
+      <c r="K4" t="str">
+        <v>已婚</v>
+      </c>
+      <c r="L4" t="str">
+        <v>32133333</v>
+      </c>
+      <c r="M4" t="str">
+        <v>否</v>
+      </c>
+      <c r="N4" t="str">
+        <v>12313</v>
+      </c>
+      <c r="O4" t="str">
+        <v>是</v>
+      </c>
+      <c r="P4" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>否</v>
+      </c>
+      <c r="R4" t="str">
+        <v>无</v>
+      </c>
+      <c r="S4" t="str">
+        <v>否</v>
+      </c>
+      <c r="T4" t="str">
+        <v>123123123</v>
+      </c>
+      <c r="U4" t="str">
+        <v>123131331</v>
+      </c>
+      <c r="V4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2018-08-29</v>
+      </c>
+      <c r="B5" t="str">
+        <v>创客小镇</v>
+      </c>
+      <c r="C5" t="str">
+        <v>w</v>
+      </c>
+      <c r="D5" t="str">
+        <v>女</v>
+      </c>
+      <c r="E5" t="str">
+        <v>qeeee</v>
+      </c>
+      <c r="F5" t="str">
+        <v>实验室</v>
+      </c>
+      <c r="G5" t="str">
+        <v>公司</v>
+      </c>
+      <c r="H5" t="str">
+        <v>2018-08-21</v>
+      </c>
+      <c r="I5" t="str">
+        <v>qqqqqqq</v>
+      </c>
+      <c r="J5" t="str">
+        <v>wwww</v>
+      </c>
+      <c r="K5" t="str">
+        <v>已婚</v>
+      </c>
+      <c r="L5" t="str">
+        <v>wwww</v>
+      </c>
+      <c r="M5" t="str">
+        <v>否</v>
+      </c>
+      <c r="N5" t="str">
+        <v>w</v>
+      </c>
+      <c r="O5" t="str">
+        <v>否</v>
+      </c>
+      <c r="P5" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>否</v>
+      </c>
+      <c r="R5" t="str">
+        <v>无</v>
+      </c>
+      <c r="S5" t="str">
+        <v>否</v>
+      </c>
+      <c r="T5" t="str">
+        <v>ww</v>
+      </c>
+      <c r="U5" t="str">
+        <v>www</v>
+      </c>
+      <c r="V5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2018-08-29</v>
+      </c>
+      <c r="B6" t="str">
+        <v>创客小镇</v>
+      </c>
+      <c r="C6" t="str">
+        <v>www</v>
+      </c>
+      <c r="D6" t="str">
+        <v>女</v>
+      </c>
+      <c r="E6" t="str">
+        <v>ww</v>
+      </c>
+      <c r="F6" t="str">
+        <v>公司</v>
+      </c>
+      <c r="G6" t="str">
+        <v>公司</v>
+      </c>
+      <c r="H6" t="str">
+        <v>2018-08-02</v>
+      </c>
+      <c r="I6" t="str">
+        <v>qweqw</v>
+      </c>
+      <c r="J6" t="str">
+        <v>eqweqe</v>
+      </c>
+      <c r="K6" t="str">
+        <v>未婚</v>
+      </c>
+      <c r="L6" t="str">
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <v>是</v>
+      </c>
+      <c r="N6" t="str">
+        <v>qweqwe</v>
+      </c>
+      <c r="O6" t="str">
+        <v>否</v>
+      </c>
+      <c r="P6" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>否</v>
+      </c>
+      <c r="R6" t="str">
+        <v>无</v>
+      </c>
+      <c r="S6" t="str">
+        <v>是</v>
+      </c>
+      <c r="T6" t="str">
+        <v>1233123123</v>
+      </c>
+      <c r="U6" t="str">
+        <v>qweqe</v>
+      </c>
+      <c r="V6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2018-08-29</v>
+      </c>
+      <c r="B7" t="str">
+        <v>创客小镇</v>
+      </c>
+      <c r="C7" t="str">
+        <v>wwww</v>
+      </c>
+      <c r="D7" t="str">
+        <v>男</v>
+      </c>
+      <c r="E7" t="str">
+        <v>123</v>
+      </c>
+      <c r="F7" t="str">
+        <v>实验室</v>
+      </c>
+      <c r="G7" t="str">
+        <v>实验室</v>
+      </c>
+      <c r="H7" t="str">
+        <v>2018-08-28</v>
+      </c>
+      <c r="I7" t="str">
+        <v>123123</v>
+      </c>
+      <c r="J7" t="str">
+        <v>123123</v>
+      </c>
+      <c r="K7" t="str">
+        <v>已婚</v>
+      </c>
+      <c r="L7" t="str">
+        <v>12313</v>
+      </c>
+      <c r="M7" t="str">
+        <v>否</v>
+      </c>
+      <c r="N7" t="str">
+        <v>123123</v>
+      </c>
+      <c r="O7" t="str">
+        <v>否</v>
+      </c>
+      <c r="P7" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>否</v>
+      </c>
+      <c r="R7" t="str">
+        <v>无</v>
+      </c>
+      <c r="S7" t="str">
+        <v>否</v>
+      </c>
+      <c r="T7" t="str">
+        <v>123123123</v>
+      </c>
+      <c r="U7" t="str">
+        <v>1313123</v>
+      </c>
+      <c r="V7" t="str">
+        <v>12313</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2018-08-29</v>
+      </c>
+      <c r="B8" t="str">
+        <v>创客小镇</v>
+      </c>
+      <c r="C8" t="str">
+        <v>qweqwe</v>
+      </c>
+      <c r="D8" t="str">
+        <v>男</v>
+      </c>
+      <c r="E8" t="str">
+        <v>qweqweqe</v>
+      </c>
+      <c r="F8" t="str">
+        <v>公司</v>
+      </c>
+      <c r="G8" t="str">
+        <v>公司</v>
+      </c>
+      <c r="H8" t="str">
+        <v>2018-08-20</v>
+      </c>
+      <c r="I8" t="str">
+        <v>qweqeq</v>
+      </c>
+      <c r="J8" t="str">
+        <v>eweqwe</v>
+      </c>
+      <c r="K8" t="str">
+        <v>已婚</v>
+      </c>
+      <c r="L8" t="str">
+        <v>qweqwe</v>
+      </c>
+      <c r="M8" t="str">
+        <v>否</v>
+      </c>
+      <c r="N8" t="str">
+        <v>qweqwe</v>
+      </c>
+      <c r="O8" t="str">
+        <v>否</v>
+      </c>
+      <c r="P8" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>否</v>
+      </c>
+      <c r="R8" t="str">
+        <v>有</v>
+      </c>
+      <c r="S8" t="str">
+        <v>否</v>
+      </c>
+      <c r="T8" t="str">
+        <v>qweqeq</v>
+      </c>
+      <c r="U8" t="str">
+        <v>qeqwe</v>
+      </c>
+      <c r="V8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2018-08-29</v>
+      </c>
+      <c r="B9" t="str">
+        <v>创客小镇</v>
+      </c>
+      <c r="C9" t="str">
+        <v>qweqweq</v>
+      </c>
+      <c r="D9" t="str">
+        <v>女</v>
+      </c>
+      <c r="E9" t="str">
+        <v>eqweee</v>
+      </c>
+      <c r="F9" t="str">
+        <v>实验室</v>
+      </c>
+      <c r="G9" t="str">
+        <v>公司</v>
+      </c>
+      <c r="H9" t="str">
+        <v>2018-08-23</v>
+      </c>
+      <c r="I9" t="str">
+        <v>qewqeqw</v>
+      </c>
+      <c r="J9" t="str">
+        <v>eqweq</v>
+      </c>
+      <c r="K9" t="str">
+        <v>未婚</v>
+      </c>
+      <c r="L9" t="str">
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <v>否</v>
+      </c>
+      <c r="N9" t="str">
+        <v>eeeeee</v>
+      </c>
+      <c r="O9" t="str">
+        <v>否</v>
+      </c>
+      <c r="P9" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>否</v>
+      </c>
+      <c r="R9" t="str">
+        <v>有</v>
+      </c>
+      <c r="S9" t="str">
+        <v>是</v>
+      </c>
+      <c r="T9" t="str">
+        <v>eqweq</v>
+      </c>
+      <c r="U9" t="str">
+        <v>wqeqweqe</v>
+      </c>
+      <c r="V9" t="str">
+        <v>ewqeq</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2018-08-29</v>
+      </c>
+      <c r="B10" t="str">
+        <v>创客小镇</v>
+      </c>
+      <c r="C10" t="str">
+        <v>qweqe</v>
+      </c>
+      <c r="D10" t="str">
+        <v>男</v>
+      </c>
+      <c r="E10" t="str">
+        <v>eqweqwe</v>
+      </c>
+      <c r="F10" t="str">
+        <v>公司</v>
+      </c>
+      <c r="G10" t="str">
+        <v>其他</v>
+      </c>
+      <c r="H10" t="str">
+        <v>2018-08-08</v>
+      </c>
+      <c r="I10" t="str">
+        <v>ewqeqeqe</v>
+      </c>
+      <c r="J10" t="str">
+        <v>eeeeee</v>
+      </c>
+      <c r="K10" t="str">
+        <v>未婚</v>
+      </c>
+      <c r="L10" t="str">
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <v>否</v>
+      </c>
+      <c r="N10" t="str">
+        <v>ee</v>
+      </c>
+      <c r="O10" t="str">
+        <v>是</v>
+      </c>
+      <c r="P10" t="str">
+        <v>是</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>否</v>
+      </c>
+      <c r="R10" t="str">
+        <v>有</v>
+      </c>
+      <c r="S10" t="str">
+        <v>否</v>
+      </c>
+      <c r="T10" t="str">
+        <v>eqweqewqe</v>
+      </c>
+      <c r="U10" t="str">
+        <v>qweqweq</v>
+      </c>
+      <c r="V10" t="str">
+        <v>eqwe</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2018-08-29</v>
+      </c>
+      <c r="B11" t="str">
+        <v>创客小镇</v>
+      </c>
+      <c r="C11" t="str">
+        <v>adasdas</v>
+      </c>
+      <c r="D11" t="str">
+        <v>男</v>
+      </c>
+      <c r="E11" t="str">
+        <v>dddddd</v>
+      </c>
+      <c r="F11" t="str">
+        <v>创嘉</v>
+      </c>
+      <c r="G11" t="str">
+        <v>实验室</v>
+      </c>
+      <c r="H11" t="str">
+        <v>2018-08-21</v>
+      </c>
+      <c r="I11" t="str">
+        <v>dasdads</v>
+      </c>
+      <c r="J11" t="str">
+        <v>asdadada</v>
+      </c>
+      <c r="K11" t="str">
+        <v>已婚</v>
+      </c>
+      <c r="L11" t="str">
+        <v>ddddd</v>
+      </c>
+      <c r="M11" t="str">
+        <v>否</v>
+      </c>
+      <c r="N11" t="str">
+        <v>ddsada</v>
+      </c>
+      <c r="O11" t="str">
+        <v>否</v>
+      </c>
+      <c r="P11" t="str">
+        <v>是</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>否</v>
+      </c>
+      <c r="R11" t="str">
+        <v>无</v>
+      </c>
+      <c r="S11" t="str">
+        <v>是</v>
+      </c>
+      <c r="T11" t="str">
+        <v>123123123</v>
+      </c>
+      <c r="U11" t="str">
+        <v>12312333</v>
+      </c>
+      <c r="V11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2018-08-29</v>
+      </c>
+      <c r="B12" t="str">
+        <v>创客小镇</v>
+      </c>
+      <c r="C12" t="str">
+        <v>123</v>
+      </c>
+      <c r="D12" t="str">
+        <v>女</v>
+      </c>
+      <c r="E12" t="str">
+        <v>eqweqw</v>
+      </c>
+      <c r="F12" t="str">
+        <v>创嘉</v>
+      </c>
+      <c r="G12" t="str">
+        <v>实验室</v>
+      </c>
+      <c r="H12" t="str">
+        <v>2018-08-23</v>
+      </c>
+      <c r="I12" t="str">
+        <v>eqweqe</v>
+      </c>
+      <c r="J12" t="str">
+        <v>eqeqwe</v>
+      </c>
+      <c r="K12" t="str">
+        <v>未婚</v>
+      </c>
+      <c r="L12" t="str">
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <v>否</v>
+      </c>
+      <c r="N12" t="str">
+        <v>qweqwe</v>
+      </c>
+      <c r="O12" t="str">
+        <v>否</v>
+      </c>
+      <c r="P12" t="str">
+        <v>是</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>否</v>
+      </c>
+      <c r="R12" t="str">
+        <v>有</v>
+      </c>
+      <c r="S12" t="str">
+        <v>否</v>
+      </c>
+      <c r="T12" t="str">
+        <v>ewqeqwe</v>
+      </c>
+      <c r="U12" t="str">
+        <v>eeeeeeeee</v>
+      </c>
+      <c r="V12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>2018-08-29</v>
+      </c>
+      <c r="B13" t="str">
+        <v>创客小镇</v>
+      </c>
+      <c r="C13" t="str">
+        <v>xiaoruohan</v>
+      </c>
+      <c r="D13" t="str">
+        <v>男</v>
+      </c>
+      <c r="E13" t="str">
+        <v>231005198908282012</v>
+      </c>
+      <c r="F13" t="str">
+        <v>创嘉</v>
+      </c>
+      <c r="G13" t="str">
+        <v>公司</v>
+      </c>
+      <c r="H13" t="str">
+        <v>2018-08-01</v>
+      </c>
+      <c r="I13" t="str">
+        <v>yanfagongchengshi</v>
+      </c>
+      <c r="J13" t="str" xml:space="preserve">
+        <v xml:space="preserve">kadslkjaldkjlsajd
+asdkajlkjsdalkj
+asdkljaldkj</v>
+      </c>
+      <c r="K13" t="str">
+        <v>未婚</v>
+      </c>
+      <c r="L13" t="str">
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <v>否</v>
+      </c>
+      <c r="N13" t="str">
+        <v>hebei</v>
+      </c>
+      <c r="O13" t="str">
+        <v>是</v>
+      </c>
+      <c r="P13" t="str">
+        <v>是</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>否</v>
+      </c>
+      <c r="R13" t="str">
+        <v>无</v>
+      </c>
+      <c r="S13" t="str">
+        <v>否</v>
+      </c>
+      <c r="T13" t="str">
+        <v>15120008522</v>
+      </c>
+      <c r="U13" t="str">
+        <v>benke</v>
+      </c>
+      <c r="V13" t="str" xml:space="preserve">
+        <v xml:space="preserve">oujhjhljhljhl
+</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:V2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:V13"/>
   </ignoredErrors>
 </worksheet>
 </file>